--- a/r5-core-ballot_2024_stu2/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r5-core-ballot_2024_stu2/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T07:52:19+00:00</t>
+    <t>2024-07-17T08:03:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
